--- a/OC_Proba_Santi_FI0122_FF0924_v1.xlsx
+++ b/OC_Proba_Santi_FI0122_FF0924_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E798AEB-99B2-4EDC-AFD2-14EED03FF338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E217A-4B62-4EC8-9D33-5F4BC7D37C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I691"/>
+  <dimension ref="A1:I704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
+      <selection activeCell="G697" sqref="G697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19078,7 +19078,7 @@
         <v>0.5</v>
       </c>
       <c r="F642">
-        <f t="shared" ref="F642:F690" si="30">IF(D642&gt;0.5,0,1)</f>
+        <f t="shared" ref="F642:F704" si="30">IF(D642&gt;0.5,0,1)</f>
         <v>1</v>
       </c>
       <c r="G642" t="str">
@@ -20483,9 +20483,301 @@
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>3711</v>
+      </c>
+      <c r="B691" s="2">
+        <v>45565</v>
+      </c>
+      <c r="C691">
+        <v>0</v>
+      </c>
+      <c r="D691">
+        <v>0.5</v>
+      </c>
+      <c r="E691">
+        <v>0.5</v>
+      </c>
+      <c r="F691">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
       <c r="G691" t="str">
         <f t="shared" si="32"/>
         <v/>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>3712</v>
+      </c>
+      <c r="B692" s="2">
+        <v>45566</v>
+      </c>
+      <c r="C692">
+        <v>1</v>
+      </c>
+      <c r="D692">
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="E692">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F692">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>3713</v>
+      </c>
+      <c r="B693" s="2">
+        <v>45567</v>
+      </c>
+      <c r="C693">
+        <v>1</v>
+      </c>
+      <c r="D693">
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="E693">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F693">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>3714</v>
+      </c>
+      <c r="B694" s="2">
+        <v>45568</v>
+      </c>
+      <c r="C694">
+        <v>1</v>
+      </c>
+      <c r="D694">
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="E694">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F694">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>3715</v>
+      </c>
+      <c r="B695" s="2">
+        <v>45569</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+      <c r="D695">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E695">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F695">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>3716</v>
+      </c>
+      <c r="B696" s="2">
+        <v>45572</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+      <c r="D696">
+        <v>0.4</v>
+      </c>
+      <c r="E696">
+        <v>0.6</v>
+      </c>
+      <c r="F696">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>3717</v>
+      </c>
+      <c r="B697" s="2">
+        <v>45573</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+      <c r="D697">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E697">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F697">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>3718</v>
+      </c>
+      <c r="B698" s="2">
+        <v>45574</v>
+      </c>
+      <c r="C698">
+        <v>1</v>
+      </c>
+      <c r="D698">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="E698">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F698">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>3719</v>
+      </c>
+      <c r="B699" s="2">
+        <v>45575</v>
+      </c>
+      <c r="C699">
+        <v>1</v>
+      </c>
+      <c r="D699">
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="E699">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F699">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>3720</v>
+      </c>
+      <c r="B700" s="2">
+        <v>45576</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+      <c r="D700">
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="E700">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="F700">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>3721</v>
+      </c>
+      <c r="B701" s="2">
+        <v>45579</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+      <c r="D701">
+        <v>0.3</v>
+      </c>
+      <c r="E701">
+        <v>0.7</v>
+      </c>
+      <c r="F701">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>3722</v>
+      </c>
+      <c r="B702" s="2">
+        <v>45580</v>
+      </c>
+      <c r="C702">
+        <v>1</v>
+      </c>
+      <c r="D702">
+        <v>0.45</v>
+      </c>
+      <c r="E702">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F702">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>3723</v>
+      </c>
+      <c r="B703" s="2">
+        <v>45581</v>
+      </c>
+      <c r="C703">
+        <v>0</v>
+      </c>
+      <c r="D703">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="E703">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="F703">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>3724</v>
+      </c>
+      <c r="B704" s="2">
+        <v>45582</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+      <c r="D704">
+        <v>0.3</v>
+      </c>
+      <c r="E704">
+        <v>0.7</v>
+      </c>
+      <c r="F704">
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
